--- a/data/long_dif/P24_9-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_9-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 36,4</t>
+          <t>1,59; 10,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 14,15</t>
+          <t>6,3; 14,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 15,34</t>
+          <t>5,22; 19,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,64</t>
+          <t>2,59; 11,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,06</t>
+          <t>4,78; 14,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 21,8</t>
+          <t>6,88; 14,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 12,64</t>
+          <t>4,89; 13,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 6,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 10,7</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 13,18</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 13,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>73,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>87,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>81,4%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>80,47%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>74,62%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,47; 94,2</t>
+          <t>86,54; 98,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,85; 88,24</t>
+          <t>77,43; 91,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,48; 88,1</t>
+          <t>76,89; 87,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,16; 86,28</t>
+          <t>65,96; 84,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,05; 85,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,29; 83,76</t>
+          <t>72,28; 87,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,67; 88,54</t>
+          <t>70,0; 84,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,1; 84,25</t>
+          <t>72,57; 82,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,52; 84,47</t>
+          <t>64,79; 80,21</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81,06; 91,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>75,41; 86,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>76,62; 84,25</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>68,71; 80,83</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 28,68</t>
+          <t>1,96; 13,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,47</t>
+          <t>5,15; 16,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,79</t>
+          <t>4,39; 12,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 13,81</t>
+          <t>8,24; 22,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 17,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 15,9</t>
+          <t>6,81; 20,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 16,44</t>
+          <t>8,23; 21,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,83</t>
+          <t>7,88; 16,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 12,45</t>
+          <t>11,37; 26,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 14,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 16,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 12,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 22,13</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>81,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>80,75%</t>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,59; 92,56</t>
+          <t>1,06; 4,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,25; 84,89</t>
+          <t>5,16; 13,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,35; 83,3</t>
+          <t>5,75; 12,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,17; 86,34</t>
+          <t>4,79; 10,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>77,09; 84,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,0; 85,69</t>
+          <t>5,13; 15,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,9; 88,94</t>
+          <t>5,91; 12,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,4; 83,69</t>
+          <t>6,28; 10,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,34; 83,67</t>
+          <t>5,09; 11,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 8,74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 11,13</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 10,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 9,94</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>81,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>77,07%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>85,75%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>81,2%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>80,78%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>78,99%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 10,56</t>
+          <t>84,42; 93,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,83</t>
+          <t>71,57; 84,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 17,63</t>
+          <t>74,59; 84,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,76</t>
+          <t>75,84; 85,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,26</t>
+          <t>75,94; 86,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,85</t>
+          <t>78,29; 85,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,38</t>
+          <t>78,13; 85,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,65</t>
+          <t>72,51; 81,55</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>81,74; 88,73</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>76,89; 84,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>77,21; 83,75</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>75,53; 82,47</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 13,59</t>
+          <t>4,8; 13,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,39</t>
+          <t>8,25; 19,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,35</t>
+          <t>8,05; 17,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,19</t>
+          <t>8,39; 15,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,03</t>
+          <t>6,64; 13,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,73</t>
+          <t>6,45; 11,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,78</t>
+          <t>6,94; 13,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,35</t>
+          <t>11,52; 19,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 11,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 14,62</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 14,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10,78; 16,39</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,6; 85,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>71,22; 82,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,28; 86,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>77,88; 86,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>74,26; 83,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,52; 80,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>78,49; 85,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,81; 81,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,67; 82,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,18; 16,75</t>
+          <t>3,48; 17,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,35; 15,31</t>
+          <t>8,78; 18,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,51</t>
+          <t>5,89; 11,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,34</t>
+          <t>6,7; 15,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,85; 16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,92</t>
+          <t>6,13; 13,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,58</t>
+          <t>6,23; 13,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,94</t>
+          <t>8,91; 15,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,47</t>
+          <t>7,0; 13,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 13,1</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 13,96</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 12,24</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 13,14</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>73,53%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>79,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>76,99%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>79,29%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>73,54%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,69</t>
+          <t>70,93; 85,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,38; 16,04</t>
+          <t>69,64; 82,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,43</t>
+          <t>78,07; 85,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,31</t>
+          <t>66,71; 79,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,53</t>
+          <t>74,76; 84,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,23</t>
+          <t>72,26; 82,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,49</t>
+          <t>72,15; 80,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,06; 10,7</t>
+          <t>68,89; 78,33</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>74,8; 83,46</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>72,57; 80,75</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>76,43; 82,12</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>69,47; 77,49</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>83,17; 89,28</t>
+          <t>8,55; 18,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75,04; 82,53</t>
+          <t>6,95; 16,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>77,76; 83,66</t>
+          <t>6,69; 12,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>79,88; 84,77</t>
+          <t>12,35; 22,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>77,48; 82,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>77,43; 82,07</t>
+          <t>7,1; 14,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>82,57; 86,47</t>
+          <t>9,67; 18,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>76,86; 82,01</t>
+          <t>8,95; 15,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>78,43; 82,08</t>
+          <t>12,81; 20,69</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 15,59</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 15,93</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 12,76</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 20,0</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,53; 12,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,26; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,97; 11,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 6,17</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 31,62</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 11,7</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 16,59</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 8,07</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 20,49</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>85,33%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>79,47%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>83,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>79,94%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>84,33%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>79,69%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>78,29; 88,86</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>65,14; 86,38</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>79,33; 87,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>73,11; 85,97</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>80,66; 87,12</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>71,84; 84,37</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 18,35</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 9,29</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 11,96</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 14,26</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 13,31</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 10,17</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>8,73%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 5,75</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 14,02</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 11,08</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 11,36</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 10,42</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 10,99</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 11,5</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 10,74</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 7,5</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 11,6</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 10,77</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 10,42</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>86,36%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>79,67%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>81,16%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>77,33%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>81,94%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>79,86%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>79,33%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>75,04%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>84,11%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>79,76%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>80,23%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>76,16%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>82,55; 88,69</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>75,65; 82,93</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>77,86; 83,98</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>73,22; 80,73</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>79,39; 84,4</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>76,99; 82,24</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>76,82; 81,62</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>71,61; 77,77</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>82,13; 86,05</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>77,5; 81,82</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>78,27; 82,0</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>73,77; 78,45</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 13,12</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 13,24</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 12,92</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 17,18</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 11,82</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 13,07</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 12,91</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 19,5</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 11,57</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 12,28</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 12,14</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 17,2</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_9-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_9-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -817,7 +817,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -958,7 +958,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1244,7 +1244,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1385,7 +1385,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1671,7 +1671,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1812,7 +1812,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2098,7 +2098,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2239,7 +2239,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
